--- a/Test-case.xlsx
+++ b/Test-case.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
   <si>
     <t>passed</t>
   </si>
@@ -786,7 +786,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,13 +813,6 @@
       <b/>
       <sz val="11"/>
       <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -1097,9 +1090,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1107,8 +1100,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
@@ -1121,31 +1114,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1154,13 +1147,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1172,10 +1162,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1184,70 +1174,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -1586,7 +1581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1642,10 +1637,10 @@
   <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,14 +1670,14 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
@@ -1720,21 +1715,21 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="12">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="12">
@@ -1765,14 +1760,14 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="13" t="s">
         <v>7</v>
       </c>
@@ -1795,14 +1790,14 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="13" t="s">
         <v>8</v>
       </c>
@@ -1821,14 +1816,14 @@
     </row>
     <row r="5" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="13" t="s">
         <v>9</v>
       </c>
@@ -1861,43 +1856,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="40" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="38"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="46" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="7"/>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="46" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="7"/>
-      <c r="P6" s="37"/>
+      <c r="P6" s="46"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="37"/>
+      <c r="R6" s="46"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="37"/>
+      <c r="T6" s="46"/>
       <c r="U6" s="7"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1907,29 +1902,29 @@
     </row>
     <row r="7" spans="1:26" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="21" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="39"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="37"/>
+      <c r="L7" s="46"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="37"/>
+      <c r="N7" s="46"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="37"/>
+      <c r="P7" s="46"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="37"/>
+      <c r="R7" s="46"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="37"/>
+      <c r="T7" s="46"/>
       <c r="U7" s="7"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1939,27 +1934,29 @@
     </row>
     <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>1</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="19"/>
-      <c r="J8" s="25"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="4"/>
       <c r="O8" s="7"/>
@@ -1977,25 +1974,27 @@
     </row>
     <row r="9" spans="1:26" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <v>2</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="25"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="19"/>
-      <c r="J9" s="25"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="4"/>
       <c r="O9" s="7"/>
@@ -2013,25 +2012,27 @@
     </row>
     <row r="10" spans="1:26" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <v>3</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="25"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="25"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="4"/>
       <c r="O10" s="7"/>
@@ -2049,25 +2050,27 @@
     </row>
     <row r="11" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>4</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="26"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="20"/>
+      <c r="L11" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="7"/>
@@ -2080,25 +2083,27 @@
     </row>
     <row r="12" spans="1:26" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <v>5</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="25"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="7"/>
@@ -2116,25 +2121,27 @@
     </row>
     <row r="13" spans="1:26" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <v>6</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="25"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="7"/>
@@ -2152,25 +2159,27 @@
     </row>
     <row r="14" spans="1:26" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>7</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="25"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="7"/>
@@ -2188,25 +2197,27 @@
     </row>
     <row r="15" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <v>8</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="25"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="7"/>
@@ -2224,25 +2235,27 @@
     </row>
     <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>9</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="25"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="4"/>
       <c r="O16" s="7"/>
@@ -2260,25 +2273,27 @@
     </row>
     <row r="17" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="30">
+      <c r="B17" s="29">
         <v>10</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="25"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="25"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="4"/>
       <c r="O17" s="7"/>
@@ -2296,25 +2311,27 @@
     </row>
     <row r="18" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>11</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="25"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="25"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="4"/>
       <c r="O18" s="7"/>
@@ -2332,25 +2349,27 @@
     </row>
     <row r="19" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="30">
+      <c r="B19" s="29">
         <v>12</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="25"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="25"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="4"/>
       <c r="O19" s="7"/>
@@ -2368,25 +2387,27 @@
     </row>
     <row r="20" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="30">
+      <c r="B20" s="29">
         <v>13</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="23" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="25"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="25"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="4"/>
       <c r="O20" s="7"/>
@@ -2404,25 +2425,27 @@
     </row>
     <row r="21" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="30">
+      <c r="B21" s="29">
         <v>14</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="25"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="25"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="4"/>
       <c r="O21" s="7"/>
@@ -2440,25 +2463,27 @@
     </row>
     <row r="22" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="30">
+      <c r="B22" s="29">
         <v>15</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="25"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="25"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="4"/>
       <c r="O22" s="7"/>
@@ -2476,25 +2501,27 @@
     </row>
     <row r="23" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="30">
+      <c r="B23" s="29">
         <v>16</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="25"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="25"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="4"/>
       <c r="O23" s="7"/>
@@ -2512,25 +2539,27 @@
     </row>
     <row r="24" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="30">
+      <c r="B24" s="29">
         <v>17</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="25"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="25"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="4"/>
       <c r="O24" s="7"/>
@@ -2548,25 +2577,27 @@
     </row>
     <row r="25" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="30">
+      <c r="B25" s="29">
         <v>18</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="23" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="25"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="19"/>
-      <c r="J25" s="25"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="4"/>
       <c r="O25" s="7"/>
@@ -2584,25 +2615,27 @@
     </row>
     <row r="26" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="30">
+      <c r="B26" s="29">
         <v>19</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="23" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="25"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="25"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="4"/>
+      <c r="L26" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M26" s="7"/>
       <c r="N26" s="4"/>
       <c r="O26" s="7"/>
@@ -2620,25 +2653,27 @@
     </row>
     <row r="27" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="30">
+      <c r="B27" s="29">
         <v>20</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="23" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="25"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="25"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="4"/>
+      <c r="L27" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M27" s="7"/>
       <c r="N27" s="4"/>
       <c r="O27" s="7"/>
@@ -2656,25 +2691,27 @@
     </row>
     <row r="28" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="30">
+      <c r="B28" s="29">
         <v>21</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="23" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="25"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="24"/>
       <c r="I28" s="19"/>
-      <c r="J28" s="25"/>
+      <c r="J28" s="24"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="4"/>
+      <c r="L28" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="4"/>
       <c r="O28" s="7"/>
@@ -2692,25 +2729,27 @@
     </row>
     <row r="29" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="30">
+      <c r="B29" s="29">
         <v>22</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="23" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="25"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="19"/>
-      <c r="J29" s="25"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="4"/>
+      <c r="L29" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="4"/>
       <c r="O29" s="7"/>
@@ -2728,25 +2767,27 @@
     </row>
     <row r="30" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="30">
+      <c r="B30" s="29">
         <v>23</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="23" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="25"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="19"/>
-      <c r="J30" s="25"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="4"/>
+      <c r="L30" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="4"/>
       <c r="O30" s="7"/>
@@ -2764,25 +2805,27 @@
     </row>
     <row r="31" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="30">
+      <c r="B31" s="29">
         <v>24</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="23" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="25"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="19"/>
-      <c r="J31" s="25"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="4"/>
+      <c r="L31" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M31" s="7"/>
       <c r="N31" s="4"/>
       <c r="O31" s="7"/>
@@ -2800,25 +2843,27 @@
     </row>
     <row r="32" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="30">
+      <c r="B32" s="29">
         <v>25</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="23" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="25"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="19"/>
-      <c r="J32" s="25"/>
+      <c r="J32" s="24"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="4"/>
+      <c r="L32" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M32" s="7"/>
       <c r="N32" s="4"/>
       <c r="O32" s="7"/>
@@ -2836,25 +2881,27 @@
     </row>
     <row r="33" spans="1:26" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="30">
+      <c r="B33" s="29">
         <v>26</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="23" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="25"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="24"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="25"/>
+      <c r="J33" s="24"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="4"/>
+      <c r="L33" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M33" s="7"/>
       <c r="N33" s="4"/>
       <c r="O33" s="7"/>
@@ -2872,25 +2919,27 @@
     </row>
     <row r="34" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="30">
+      <c r="B34" s="29">
         <v>27</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="23" t="s">
+      <c r="C34" s="29"/>
+      <c r="D34" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="25"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="19"/>
-      <c r="J34" s="25"/>
+      <c r="J34" s="24"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="4"/>
+      <c r="L34" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M34" s="7"/>
       <c r="N34" s="4"/>
       <c r="O34" s="7"/>
@@ -2908,15 +2957,15 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="25"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="19"/>
-      <c r="J35" s="25"/>
+      <c r="J35" s="24"/>
       <c r="K35" s="6"/>
       <c r="L35" s="4"/>
       <c r="M35" s="7"/>
@@ -2936,15 +2985,15 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="25"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="25"/>
+      <c r="J36" s="24"/>
       <c r="K36" s="6"/>
       <c r="L36" s="4"/>
       <c r="M36" s="7"/>
@@ -2964,15 +3013,15 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="25"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="19"/>
-      <c r="J37" s="25"/>
+      <c r="J37" s="24"/>
       <c r="K37" s="6"/>
       <c r="L37" s="4"/>
       <c r="M37" s="7"/>
@@ -2992,15 +3041,15 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="25"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="25"/>
+      <c r="J38" s="24"/>
       <c r="K38" s="6"/>
       <c r="L38" s="4"/>
       <c r="M38" s="7"/>
@@ -3020,15 +3069,15 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="25"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="24"/>
       <c r="I39" s="19"/>
-      <c r="J39" s="25"/>
+      <c r="J39" s="24"/>
       <c r="K39" s="6"/>
       <c r="L39" s="4"/>
       <c r="M39" s="7"/>
@@ -3048,15 +3097,15 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="25"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="24"/>
       <c r="I40" s="19"/>
-      <c r="J40" s="25"/>
+      <c r="J40" s="24"/>
       <c r="K40" s="6"/>
       <c r="L40" s="4"/>
       <c r="M40" s="7"/>
@@ -3076,15 +3125,15 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
       <c r="K41" s="6"/>
       <c r="L41" s="4"/>
       <c r="M41" s="7"/>
@@ -3104,15 +3153,15 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="29"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="28"/>
       <c r="K42" s="10"/>
       <c r="L42" s="4"/>
       <c r="M42" s="7"/>
@@ -3589,12 +3638,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3602,14 +3645,20 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="L8:T45">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 N12:N42 N8:N10 L8:L42">
       <formula1>Result</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" sqref="N11 T11 R11 P11">
